--- a/Resources/Stocks.xlsx
+++ b/Resources/Stocks.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G989"/>
+  <dimension ref="A1:G990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23182,7 +23182,7 @@
         <v>45173</v>
       </c>
       <c r="B989" t="n">
-        <v>634999.25</v>
+        <v>634999.1875</v>
       </c>
       <c r="C989" t="n">
         <v>641501.1875</v>
@@ -23197,6 +23197,29 @@
         <v>633243.3125</v>
       </c>
       <c r="G989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B990" t="n">
+        <v>633243.3125</v>
+      </c>
+      <c r="C990" t="n">
+        <v>633243.3125</v>
+      </c>
+      <c r="D990" t="n">
+        <v>597354.375</v>
+      </c>
+      <c r="E990" t="n">
+        <v>598133.375</v>
+      </c>
+      <c r="F990" t="n">
+        <v>598133.375</v>
+      </c>
+      <c r="G990" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Resources/Stocks.xlsx
+++ b/Resources/Stocks.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G990"/>
+  <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23223,6 +23223,190 @@
         <v>0</v>
       </c>
     </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B991" t="n">
+        <v>598133.375</v>
+      </c>
+      <c r="C991" t="n">
+        <v>607515.375</v>
+      </c>
+      <c r="D991" t="n">
+        <v>583982.625</v>
+      </c>
+      <c r="E991" t="n">
+        <v>583982.625</v>
+      </c>
+      <c r="F991" t="n">
+        <v>583982.625</v>
+      </c>
+      <c r="G991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B992" t="n">
+        <v>584655.125</v>
+      </c>
+      <c r="C992" t="n">
+        <v>584655.125</v>
+      </c>
+      <c r="D992" t="n">
+        <v>546941.875</v>
+      </c>
+      <c r="E992" t="n">
+        <v>548015.125</v>
+      </c>
+      <c r="F992" t="n">
+        <v>548015.125</v>
+      </c>
+      <c r="G992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B993" t="n">
+        <v>548015.125</v>
+      </c>
+      <c r="C993" t="n">
+        <v>565736.6875</v>
+      </c>
+      <c r="D993" t="n">
+        <v>527353.5</v>
+      </c>
+      <c r="E993" t="n">
+        <v>532550.375</v>
+      </c>
+      <c r="F993" t="n">
+        <v>532550.375</v>
+      </c>
+      <c r="G993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B994" t="n">
+        <v>532550.375</v>
+      </c>
+      <c r="C994" t="n">
+        <v>541898.875</v>
+      </c>
+      <c r="D994" t="n">
+        <v>508068.1875</v>
+      </c>
+      <c r="E994" t="n">
+        <v>514073.8125</v>
+      </c>
+      <c r="F994" t="n">
+        <v>514073.8125</v>
+      </c>
+      <c r="G994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B995" t="n">
+        <v>514119.90625</v>
+      </c>
+      <c r="C995" t="n">
+        <v>539661.125</v>
+      </c>
+      <c r="D995" t="n">
+        <v>512978.6875</v>
+      </c>
+      <c r="E995" t="n">
+        <v>538084.5</v>
+      </c>
+      <c r="F995" t="n">
+        <v>538084.5</v>
+      </c>
+      <c r="G995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B996" t="n">
+        <v>538084.5</v>
+      </c>
+      <c r="C996" t="n">
+        <v>555404</v>
+      </c>
+      <c r="D996" t="n">
+        <v>536113.125</v>
+      </c>
+      <c r="E996" t="n">
+        <v>553410.125</v>
+      </c>
+      <c r="F996" t="n">
+        <v>553410.125</v>
+      </c>
+      <c r="G996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B997" t="n">
+        <v>553410.125</v>
+      </c>
+      <c r="C997" t="n">
+        <v>573118</v>
+      </c>
+      <c r="D997" t="n">
+        <v>553410.125</v>
+      </c>
+      <c r="E997" t="n">
+        <v>571753.3125</v>
+      </c>
+      <c r="F997" t="n">
+        <v>571753.3125</v>
+      </c>
+      <c r="G997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B998" t="n">
+        <v>571753.3125</v>
+      </c>
+      <c r="C998" t="n">
+        <v>576880.5</v>
+      </c>
+      <c r="D998" t="n">
+        <v>556019.8125</v>
+      </c>
+      <c r="E998" t="n">
+        <v>567513.375</v>
+      </c>
+      <c r="F998" t="n">
+        <v>567513.375</v>
+      </c>
+      <c r="G998" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
